--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_14_5.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_14_5.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999904204841442</v>
+        <v>0.9999830701498172</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990260923254242</v>
+        <v>0.999201728177555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9994757137835838</v>
+        <v>0.9998821420287659</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999277886564208</v>
+        <v>0.9999350906506616</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999396599446548</v>
+        <v>0.9999453220918366</v>
       </c>
       <c r="G2" t="n">
-        <v>8.942057559198564e-06</v>
+        <v>1.58032720110284e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009091000646103871</v>
+        <v>0.0007451517061691077</v>
       </c>
       <c r="I2" t="n">
-        <v>4.021520525677904e-05</v>
+        <v>7.379507344296146e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>1.377702823351548e-05</v>
+        <v>9.135897023467102e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>2.699611674514726e-05</v>
+        <v>4.936923878948358e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002156303358148658</v>
+        <v>0.0001842849363883988</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002990327333118996</v>
+        <v>0.003975332943418501</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000025545375615</v>
+        <v>1.000045146267154</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003117631758520812</v>
+        <v>0.004144571096893476</v>
       </c>
       <c r="P2" t="n">
-        <v>89.24948968644827</v>
+        <v>88.11058710013157</v>
       </c>
       <c r="Q2" t="n">
-        <v>129.4723919070989</v>
+        <v>128.3334893207822</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999990416919894</v>
+        <v>0.9999830959475727</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990257672138394</v>
+        <v>0.9992015040746484</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9994809809010025</v>
+        <v>0.9998822440575215</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999278545304888</v>
+        <v>0.999935192037365</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999401255021754</v>
+        <v>0.9999454046519345</v>
       </c>
       <c r="G3" t="n">
-        <v>8.945384630363402e-06</v>
+        <v>1.577919093873233e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000909403542004067</v>
+        <v>0.000745360896395562</v>
       </c>
       <c r="I3" t="n">
-        <v>3.981119271273064e-05</v>
+        <v>7.373118960525143e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>1.376446027882058e-05</v>
+        <v>9.121626991620597e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>2.678782649577561e-05</v>
+        <v>4.929469443836556e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000220330288244945</v>
+        <v>0.0001842147867217203</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00299088358689592</v>
+        <v>0.00397230297670411</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000025554880283</v>
+        <v>1.000045077473139</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003118211693172624</v>
+        <v>0.004141412138223157</v>
       </c>
       <c r="P3" t="n">
-        <v>89.24874568489278</v>
+        <v>88.11363703034141</v>
       </c>
       <c r="Q3" t="n">
-        <v>129.4716479055434</v>
+        <v>128.336539250992</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999904030625784</v>
+        <v>0.9999831230954673</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990253908454292</v>
+        <v>0.9992012587508539</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999486792729762</v>
+        <v>0.9998823038164705</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999279320959268</v>
+        <v>0.9999353125131981</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999406402466821</v>
+        <v>0.999945500624779</v>
       </c>
       <c r="G4" t="n">
-        <v>8.958319826220437e-06</v>
+        <v>1.575384957075661e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000909754865394258</v>
+        <v>0.0007455898953892168</v>
       </c>
       <c r="I4" t="n">
-        <v>3.936539826083381e-05</v>
+        <v>7.369377239886742e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>1.37496617558348e-05</v>
+        <v>9.104670192388713e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>2.65575300083343e-05</v>
+        <v>4.920803958188694e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002258579602181322</v>
+        <v>0.0001841333386485228</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002993045242929087</v>
+        <v>0.003969111937292347</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000025591833124</v>
+        <v>1.000045005078754</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003120465375378367</v>
+        <v>0.004138085249657274</v>
       </c>
       <c r="P4" t="n">
-        <v>89.24585573591287</v>
+        <v>88.11685161073351</v>
       </c>
       <c r="Q4" t="n">
-        <v>129.4687579565635</v>
+        <v>128.3397538313841</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999903737429098</v>
+        <v>0.999983153625408</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990249461310016</v>
+        <v>0.9992009648687155</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9994930857489139</v>
+        <v>0.999882419000349</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999280014725155</v>
+        <v>0.9999354439973541</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999411944941555</v>
+        <v>0.9999456070994479</v>
       </c>
       <c r="G5" t="n">
-        <v>8.985688449881655e-06</v>
+        <v>1.572535121127567e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009101699867917525</v>
+        <v>0.0007458642214654581</v>
       </c>
       <c r="I5" t="n">
-        <v>3.888269425497793e-05</v>
+        <v>7.362165167015047e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>1.373642556365579e-05</v>
+        <v>9.086163987632164e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>2.630955990931686e-05</v>
+        <v>4.911190252166835e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000231977035503724</v>
+        <v>0.0001840360872977157</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002997613792649356</v>
+        <v>0.003965520295153672</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000025670018907</v>
+        <v>1.000044923665579</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00312522841771843</v>
+        <v>0.004134340703877031</v>
       </c>
       <c r="P5" t="n">
-        <v>89.23975483705846</v>
+        <v>88.1204728420937</v>
       </c>
       <c r="Q5" t="n">
-        <v>129.4626570577091</v>
+        <v>128.3433750627443</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999903252003873</v>
+        <v>0.9999831872856138</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990244100593564</v>
+        <v>0.9992006383978913</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9994999009570844</v>
+        <v>0.9998824788569589</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999280694444488</v>
+        <v>0.9999355922192712</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999417932056265</v>
+        <v>0.999945724701425</v>
       </c>
       <c r="G6" t="n">
-        <v>9.031000763798566e-06</v>
+        <v>1.569393088665561e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009106703861416997</v>
+        <v>0.0007461689676494347</v>
       </c>
       <c r="I6" t="n">
-        <v>3.835993590875677e-05</v>
+        <v>7.358417331478114e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>1.372345736228715e-05</v>
+        <v>9.065301967220909e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.604169663552196e-05</v>
+        <v>4.900571850184361e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002387494506801466</v>
+        <v>0.0001839177395973886</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003005162352319516</v>
+        <v>0.003961556624188983</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000025799465634</v>
+        <v>1.00004483390503</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003133098335201422</v>
+        <v>0.004130208291233445</v>
       </c>
       <c r="P6" t="n">
-        <v>89.22969474024084</v>
+        <v>88.12447297615104</v>
       </c>
       <c r="Q6" t="n">
-        <v>129.4525969608915</v>
+        <v>128.3473751968017</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999902514182065</v>
+        <v>0.999983224617936</v>
       </c>
       <c r="C7" t="n">
-        <v>0.99902378063607</v>
+        <v>0.9992002715302608</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9995073213612311</v>
+        <v>0.9998825032717882</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999281227701142</v>
+        <v>0.9999357499189158</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999424406733278</v>
+        <v>0.999945848461616</v>
       </c>
       <c r="G7" t="n">
-        <v>9.09987319088374e-06</v>
+        <v>1.565908280253993e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009112579251510357</v>
+        <v>0.0007465114224788648</v>
       </c>
       <c r="I7" t="n">
-        <v>3.779075620021879e-05</v>
+        <v>7.356888632061111e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>1.371328348707423e-05</v>
+        <v>9.043105970370036e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>2.575201984364651e-05</v>
+        <v>4.889397416788074e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002462405811783355</v>
+        <v>0.0001837684697881375</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003016599607320093</v>
+        <v>0.003957155898184949</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000025996218116</v>
+        <v>1.000044734352171</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003145022497825755</v>
+        <v>0.00412562021721266</v>
       </c>
       <c r="P7" t="n">
-        <v>89.21450015921258</v>
+        <v>88.12891887711754</v>
       </c>
       <c r="Q7" t="n">
-        <v>129.4374023798632</v>
+        <v>128.3518210977682</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999901468241097</v>
+        <v>0.9999832623846256</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990230191279938</v>
+        <v>0.9991998578609309</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9995153664452191</v>
+        <v>0.9998825470689781</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999281655242634</v>
+        <v>0.999935923761797</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999431394362823</v>
+        <v>0.9999459854761551</v>
       </c>
       <c r="G8" t="n">
-        <v>9.197507189207486e-06</v>
+        <v>1.562382925552221e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009119687595137766</v>
+        <v>0.0007468975646403054</v>
       </c>
       <c r="I8" t="n">
-        <v>3.717366062578844e-05</v>
+        <v>7.354146334015309e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>1.370512652596482e-05</v>
+        <v>9.01863783631851e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>2.543939357587663e-05</v>
+        <v>4.87702623486002e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002545348148676055</v>
+        <v>0.0001836398133188509</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00303273922209073</v>
+        <v>0.003952698983672069</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000026275135707</v>
+        <v>1.000044633640998</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003161849209410786</v>
+        <v>0.004120973562621882</v>
       </c>
       <c r="P8" t="n">
-        <v>89.19315613663957</v>
+        <v>88.13342658559121</v>
       </c>
       <c r="Q8" t="n">
-        <v>129.4160583572902</v>
+        <v>128.3563288062418</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999899978227835</v>
+        <v>0.9999833065530734</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990221178476623</v>
+        <v>0.9991993853618082</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9995238899750585</v>
+        <v>0.9998825289679538</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999281596204475</v>
+        <v>0.9999361216690699</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999438688381768</v>
+        <v>0.9999461391006609</v>
       </c>
       <c r="G9" t="n">
-        <v>9.336593386778597e-06</v>
+        <v>1.558259994830626e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009128100651417431</v>
+        <v>0.0007473386218311061</v>
       </c>
       <c r="I9" t="n">
-        <v>3.651986601652698e-05</v>
+        <v>7.355279703615185e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>1.370625290079888e-05</v>
+        <v>8.990782673940707e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>2.511305945866293e-05</v>
+        <v>4.863155322151113e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000263726117747856</v>
+        <v>0.0001834493441622519</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003055583968209448</v>
+        <v>0.003947480202395734</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000026672472577</v>
+        <v>1.000044515858471</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003185666503666922</v>
+        <v>0.004115532607022247</v>
       </c>
       <c r="P9" t="n">
-        <v>89.16313821200934</v>
+        <v>88.13871130829185</v>
       </c>
       <c r="Q9" t="n">
-        <v>129.38604043266</v>
+        <v>128.3616135289425</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999897967889558</v>
+        <v>0.9999833520479329</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990210532205757</v>
+        <v>0.999198856157437</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9995330541727507</v>
+        <v>0.9998824129662538</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999281350235013</v>
+        <v>0.9999363360809183</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999446491741842</v>
+        <v>0.9999463021945703</v>
       </c>
       <c r="G10" t="n">
-        <v>9.524249640481486e-06</v>
+        <v>1.554013249403737e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00091380384779536</v>
+        <v>0.0007478326108821914</v>
       </c>
       <c r="I10" t="n">
-        <v>3.581692918609226e-05</v>
+        <v>7.362542983203567e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>1.371094569288859e-05</v>
+        <v>8.960604516442923e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>2.476393743949043e-05</v>
+        <v>4.84842940738164e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002738912334674448</v>
+        <v>0.0001832510846844598</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003086138305468743</v>
+        <v>0.003942097473939143</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000027208562784</v>
+        <v>1.000044394538846</v>
       </c>
       <c r="O10" t="n">
-        <v>0.003217521602319543</v>
+        <v>0.004109920724671474</v>
       </c>
       <c r="P10" t="n">
-        <v>89.12333883591371</v>
+        <v>88.14416937412258</v>
       </c>
       <c r="Q10" t="n">
-        <v>129.3462410565643</v>
+        <v>128.3670715947732</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999895305377599</v>
+        <v>0.9999834004580874</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990197842880846</v>
+        <v>0.9991982468789385</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9995429483030247</v>
+        <v>0.9998822633935717</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999280637912279</v>
+        <v>0.99993657368081</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999454821385373</v>
+        <v>0.999946482197602</v>
       </c>
       <c r="G11" t="n">
-        <v>9.772783444947023e-06</v>
+        <v>1.549494373971803e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009149883405760449</v>
+        <v>0.000748401345616229</v>
       </c>
       <c r="I11" t="n">
-        <v>3.505800311223324e-05</v>
+        <v>7.371908261554033e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>1.372453592668354e-05</v>
+        <v>8.927162675384752e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>2.439126951945838e-05</v>
+        <v>4.832176750770078e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002851143658425827</v>
+        <v>0.0001833760119396515</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00312614514137572</v>
+        <v>0.003936361738930765</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000027918565974</v>
+        <v>1.0000442654451</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003259231612056648</v>
+        <v>0.004103940807549182</v>
       </c>
       <c r="P11" t="n">
-        <v>89.0718184707128</v>
+        <v>88.14999359519602</v>
       </c>
       <c r="Q11" t="n">
-        <v>129.2947206913634</v>
+        <v>128.3728958158466</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999891839049396</v>
+        <v>0.9999834536557217</v>
       </c>
       <c r="C12" t="n">
-        <v>0.999018286900161</v>
+        <v>0.99919755435761</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9995535704613671</v>
+        <v>0.9998820073795194</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999279621398219</v>
+        <v>0.9999368359612537</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999463710255657</v>
+        <v>0.9999466777463921</v>
       </c>
       <c r="G12" t="n">
-        <v>1.009634996714133e-05</v>
+        <v>1.544528608319771e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009163860864749911</v>
+        <v>0.0007490477838781942</v>
       </c>
       <c r="I12" t="n">
-        <v>3.424323388002134e-05</v>
+        <v>7.387938213195064e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>1.374392975346051e-05</v>
+        <v>8.890247082345956e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>2.399358181674093e-05</v>
+        <v>4.814520451832732e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002974566484678877</v>
+        <v>0.0001853439089359012</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003177475407794894</v>
+        <v>0.003930049119692743</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000028842920161</v>
+        <v>1.000044123584742</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003312747114185585</v>
+        <v>0.004097359447041275</v>
       </c>
       <c r="P12" t="n">
-        <v>89.00667317765178</v>
+        <v>88.15641341811809</v>
       </c>
       <c r="Q12" t="n">
-        <v>129.2295753983024</v>
+        <v>128.3793156387687</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999887343374951</v>
+        <v>0.9999835127482115</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990164991004157</v>
+        <v>0.9991967440149712</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9995647689630609</v>
+        <v>0.999881605390619</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999277937012687</v>
+        <v>0.9999371374026613</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999472950781061</v>
+        <v>0.9999468987564559</v>
       </c>
       <c r="G13" t="n">
-        <v>1.051600144287059e-05</v>
+        <v>1.539012583787576e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009180549190619069</v>
+        <v>0.0007498042031617519</v>
       </c>
       <c r="I13" t="n">
-        <v>3.338425641678454e-05</v>
+        <v>7.413108169977234e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>1.377606573914757e-05</v>
+        <v>8.847819640273465e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>2.358016107796606e-05</v>
+        <v>4.794565228635594e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003110565957088384</v>
+        <v>0.0001875119558248225</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00324283848547389</v>
+        <v>0.003923025087591941</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00003004176668</v>
+        <v>1.000043966004769</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003380892833401599</v>
+        <v>0.00409003638735219</v>
       </c>
       <c r="P13" t="n">
-        <v>88.92522502777896</v>
+        <v>88.1635688670936</v>
       </c>
       <c r="Q13" t="n">
-        <v>129.1481272484296</v>
+        <v>128.3864710877442</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999881592245594</v>
+        <v>0.9999835740106473</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990143993212303</v>
+        <v>0.9991958354363213</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9995767856514683</v>
+        <v>0.9998811080411909</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999275799197943</v>
+        <v>0.9999374641097672</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999482795999465</v>
+        <v>0.9999471361525588</v>
       </c>
       <c r="G14" t="n">
-        <v>1.105284412380412e-05</v>
+        <v>1.533294004313066e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.000920014970761811</v>
+        <v>0.0007506523214493742</v>
       </c>
       <c r="I14" t="n">
-        <v>3.246252020538197e-05</v>
+        <v>7.444248989040131e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>1.381685259150149e-05</v>
+        <v>8.801836087725704e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>2.313968639844173e-05</v>
+        <v>4.773130493314858e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003260319280792119</v>
+        <v>0.0001901682320424056</v>
       </c>
       <c r="M14" t="n">
-        <v>0.003324581796828606</v>
+        <v>0.003915729822540194</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000031575401175</v>
+        <v>1.000043802638274</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003466116126752668</v>
+        <v>0.004082430547763909</v>
       </c>
       <c r="P14" t="n">
-        <v>88.8256455526984</v>
+        <v>88.17101419966656</v>
       </c>
       <c r="Q14" t="n">
-        <v>129.048547773349</v>
+        <v>128.3939164203172</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999874263860259</v>
+        <v>0.9999836411794041</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990119307123839</v>
+        <v>0.9991947827370875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9995894081464592</v>
+        <v>0.9998803694852374</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999272676124457</v>
+        <v>0.9999378301821782</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999492950456907</v>
+        <v>0.9999473958672156</v>
       </c>
       <c r="G15" t="n">
-        <v>1.173691672692755e-05</v>
+        <v>1.527024095701705e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009223193087605362</v>
+        <v>0.0007516349699759884</v>
       </c>
       <c r="I15" t="n">
-        <v>3.149431579523892e-05</v>
+        <v>7.490492607746273e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>1.38764369579881e-05</v>
+        <v>8.750311925425992e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.268537637661351e-05</v>
+        <v>4.749680593100309e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003424686848673945</v>
+        <v>0.0001930662435951933</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003425918377154883</v>
+        <v>0.00390771556756848</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000033529637264</v>
+        <v>1.000043623521589</v>
       </c>
       <c r="O15" t="n">
-        <v>0.003571766815099074</v>
+        <v>0.004074075109366254</v>
       </c>
       <c r="P15" t="n">
-        <v>88.70554281558231</v>
+        <v>88.17920931818574</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.9284450362329</v>
+        <v>128.4021115388364</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999865064530693</v>
+        <v>0.9999837138224965</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990090477750375</v>
+        <v>0.9991935522554464</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9996029821948564</v>
+        <v>0.9998793529343242</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999269326759481</v>
+        <v>0.9999382454550699</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999503872362916</v>
+        <v>0.9999476842905481</v>
       </c>
       <c r="G16" t="n">
-        <v>1.259563376157473e-05</v>
+        <v>1.520243181894415e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009250104042269942</v>
+        <v>0.0007527835705760815</v>
       </c>
       <c r="I16" t="n">
-        <v>3.045312278774253e-05</v>
+        <v>7.554142480988836e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>1.394033868525991e-05</v>
+        <v>8.691862866635245e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>2.219673073650122e-05</v>
+        <v>4.723638557367064e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003604039712046009</v>
+        <v>0.0001962600803243414</v>
       </c>
       <c r="M16" t="n">
-        <v>0.003549032792406226</v>
+        <v>0.003899029599649655</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000035982791815</v>
+        <v>1.000043429806676</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00370012246588964</v>
+        <v>0.004065019361810693</v>
       </c>
       <c r="P16" t="n">
-        <v>88.5643206618406</v>
+        <v>88.18811030964068</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.7872228824912</v>
+        <v>128.4110125302913</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999853496396351</v>
+        <v>0.9999837877513292</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990056780693747</v>
+        <v>0.999192154165596</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9996172292702999</v>
+        <v>0.9998780597409528</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999264923664933</v>
+        <v>0.9999386963156304</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999515146531979</v>
+        <v>0.9999479908594067</v>
       </c>
       <c r="G17" t="n">
-        <v>1.367546832404399e-05</v>
+        <v>1.513342249864248e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009281558765503431</v>
+        <v>0.0007540886260823188</v>
       </c>
       <c r="I17" t="n">
-        <v>2.936030545757004e-05</v>
+        <v>7.635113923834038e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>1.402434426511895e-05</v>
+        <v>8.62840489495658e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>2.169232486134449e-05</v>
+        <v>4.695958143669992e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003811587112105238</v>
+        <v>0.0001997573315184235</v>
       </c>
       <c r="M17" t="n">
-        <v>0.003698035738610971</v>
+        <v>0.00389016998325812</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00003906762764</v>
+        <v>1.000043232663122</v>
       </c>
       <c r="O17" t="n">
-        <v>0.003855468775992942</v>
+        <v>0.004055782573207436</v>
       </c>
       <c r="P17" t="n">
-        <v>88.39981392702363</v>
+        <v>88.19720969924332</v>
       </c>
       <c r="Q17" t="n">
-        <v>128.6227161476743</v>
+        <v>128.4201119198939</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.999983912964892</v>
+        <v>0.9999838740437482</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990017705841209</v>
+        <v>0.9991905115525157</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9996324453496256</v>
+        <v>0.9998764088731885</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999260231867536</v>
+        <v>0.9999392244593863</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999527189801395</v>
+        <v>0.9999483452623222</v>
       </c>
       <c r="G18" t="n">
-        <v>1.501654113407125e-05</v>
+        <v>1.505287231334309e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.000931803342515939</v>
+        <v>0.0007556219332904264</v>
       </c>
       <c r="I18" t="n">
-        <v>2.819316099692797e-05</v>
+        <v>7.738480634323815e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>1.411385793706389e-05</v>
+        <v>8.554069425305852e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>2.115350946699593e-05</v>
+        <v>4.663958744369117e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004044033233964836</v>
+        <v>0.0002035404860676404</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003875118209044887</v>
+        <v>0.003879803128168115</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000042898760288</v>
+        <v>1.000043002550005</v>
       </c>
       <c r="O18" t="n">
-        <v>0.004040090013804478</v>
+        <v>0.004044974379633901</v>
       </c>
       <c r="P18" t="n">
-        <v>88.21271644432856</v>
+        <v>88.20788346718855</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.4356186649792</v>
+        <v>128.4307856878392</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999821311597679</v>
+        <v>0.9999839636466127</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989973247414599</v>
+        <v>0.9991886300421506</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9996488374503284</v>
+        <v>0.9998742323876523</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999255581153298</v>
+        <v>0.9999398133132672</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999540249948744</v>
+        <v>0.999948728758842</v>
       </c>
       <c r="G19" t="n">
-        <v>1.667977800529207e-05</v>
+        <v>1.496923197249343e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009359533414900529</v>
+        <v>0.0007573782406274194</v>
       </c>
       <c r="I19" t="n">
-        <v>2.693581019556326e-05</v>
+        <v>7.874758145559628e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>1.42025877933334e-05</v>
+        <v>8.471189093386758e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>2.056919899444833e-05</v>
+        <v>4.62933245397136e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004296695545389672</v>
+        <v>0.0002076230683478298</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004084088393422952</v>
+        <v>0.003869009171931934</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000047650240619</v>
+        <v>1.000042763609033</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004257956491559433</v>
+        <v>0.004033720902334176</v>
       </c>
       <c r="P19" t="n">
-        <v>88.00262694031497</v>
+        <v>88.21902733058303</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2255291609656</v>
+        <v>128.4419295512336</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999799414117843</v>
+        <v>0.9999840633974174</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989922241587719</v>
+        <v>0.9991864274603294</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9996665813259243</v>
+        <v>0.9998715464307474</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999251901713806</v>
+        <v>0.999940488237789</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999554675968724</v>
+        <v>0.9999491616752096</v>
       </c>
       <c r="G20" t="n">
-        <v>1.87238116290819e-05</v>
+        <v>1.487611897479726e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009407145115396015</v>
+        <v>0.0007594342540753696</v>
       </c>
       <c r="I20" t="n">
-        <v>2.557477193669303e-05</v>
+        <v>8.042935473737162e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>1.427278693276281e-05</v>
+        <v>8.376194443259369e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>1.992377943472791e-05</v>
+        <v>4.590243995316542e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0004568534037250157</v>
+        <v>0.000212026521558935</v>
       </c>
       <c r="M20" t="n">
-        <v>0.004327101989678762</v>
+        <v>0.003856957217133379</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000053489568575</v>
+        <v>1.000042497606887</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004511315679715347</v>
+        <v>0.004021155870868861</v>
       </c>
       <c r="P20" t="n">
-        <v>87.77142898995288</v>
+        <v>88.2315067683308</v>
       </c>
       <c r="Q20" t="n">
-        <v>127.9943312106035</v>
+        <v>128.4544089889814</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999772674223294</v>
+        <v>0.9999874968014258</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989865715919872</v>
+        <v>0.9991390596372943</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9996865030543285</v>
+        <v>0.9997936954524532</v>
       </c>
       <c r="E21" t="n">
-        <v>0.999925167702244</v>
+        <v>0.9999610159391404</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999571705520353</v>
+        <v>0.9999624619550995</v>
       </c>
       <c r="G21" t="n">
-        <v>2.121986341067018e-05</v>
+        <v>1.167118704200421e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009459909345141109</v>
+        <v>0.0008036500376714682</v>
       </c>
       <c r="I21" t="n">
-        <v>2.404668218006804e-05</v>
+        <v>1.291746250034958e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>1.427707376517958e-05</v>
+        <v>5.4869501728186e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>1.916187797262381e-05</v>
+        <v>3.389348211426779e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004857720939502128</v>
+        <v>0.0002585838422058287</v>
       </c>
       <c r="M21" t="n">
-        <v>0.004606502296826757</v>
+        <v>0.003416311906428365</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000060620207122</v>
+        <v>1.000033341862864</v>
       </c>
       <c r="O21" t="n">
-        <v>0.004802610636377001</v>
+        <v>0.003561751377025593</v>
       </c>
       <c r="P21" t="n">
-        <v>87.52114572323919</v>
+        <v>88.71677479888656</v>
       </c>
       <c r="Q21" t="n">
-        <v>127.7440479438898</v>
+        <v>128.9396770195372</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999740165942437</v>
+        <v>0.9999886562209918</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989802714245787</v>
+        <v>0.9991286523663168</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9997086937414927</v>
+        <v>0.9997788385364612</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999256595204145</v>
+        <v>0.9999670886475687</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999591776641367</v>
+        <v>0.9999666799854099</v>
       </c>
       <c r="G22" t="n">
-        <v>2.425436873387707e-05</v>
+        <v>1.058891976982914e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009518718642445387</v>
+        <v>0.0008133647683026765</v>
       </c>
       <c r="I22" t="n">
-        <v>2.234455267302466e-05</v>
+        <v>1.384770692529977e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>1.418324096159942e-05</v>
+        <v>4.632225246137466e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>1.826389681731204e-05</v>
+        <v>3.008497969333721e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0005162608462113648</v>
+        <v>0.0002573543309715279</v>
       </c>
       <c r="M22" t="n">
-        <v>0.004924872458640637</v>
+        <v>0.003254062041484325</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000069289082017</v>
+        <v>1.000030250077355</v>
       </c>
       <c r="O22" t="n">
-        <v>0.005134534475096387</v>
+        <v>0.003392594199427363</v>
       </c>
       <c r="P22" t="n">
-        <v>87.2538276056645</v>
+        <v>88.91140481658273</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.4767298263151</v>
+        <v>129.1343070372334</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999700680151583</v>
+        <v>0.9999901358897016</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989733948617332</v>
+        <v>0.9991160051426019</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9997337758862365</v>
+        <v>0.9997683625191194</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999269817648052</v>
+        <v>0.9999743474775109</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999616097021182</v>
+        <v>0.9999719743977498</v>
       </c>
       <c r="G23" t="n">
-        <v>2.794019398745067e-05</v>
+        <v>9.207713979163028e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009582908338146095</v>
+        <v>0.0008251703964915194</v>
       </c>
       <c r="I23" t="n">
-        <v>2.042063484423837e-05</v>
+        <v>1.450364768266553e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>1.393097314050027e-05</v>
+        <v>3.610555432179073e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>1.717580399236932e-05</v>
+        <v>2.530460100222813e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0005483098938961804</v>
+        <v>0.0002457483752593332</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005285848464291298</v>
+        <v>0.003034421522986388</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000079818626245</v>
+        <v>1.000026304294129</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005510877976630943</v>
+        <v>0.003163603129338415</v>
       </c>
       <c r="P23" t="n">
-        <v>86.97088852231693</v>
+        <v>89.19093789847585</v>
       </c>
       <c r="Q23" t="n">
-        <v>127.1937907429676</v>
+        <v>129.4138401191265</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999653098943843</v>
+        <v>0.9999912658722282</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989661848907906</v>
+        <v>0.9991003747113568</v>
       </c>
       <c r="D24" t="n">
-        <v>0.99976345979991</v>
+        <v>0.9997678151516534</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999299956821027</v>
+        <v>0.9999799141461005</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999647969122066</v>
+        <v>0.9999762941702123</v>
       </c>
       <c r="G24" t="n">
-        <v>3.238169087264344e-05</v>
+        <v>8.15292489104505e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009650210252084056</v>
+        <v>0.0008397607179621651</v>
       </c>
       <c r="I24" t="n">
-        <v>1.814373981281215e-05</v>
+        <v>1.453792030922831e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>1.335595512194229e-05</v>
+        <v>2.827054880760891e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>1.574984746737722e-05</v>
+        <v>2.140423455841861e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0005837287713995479</v>
+        <v>0.0002325986146181058</v>
       </c>
       <c r="M24" t="n">
-        <v>0.005690491268128214</v>
+        <v>0.002855332711094287</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000092506948309</v>
+        <v>1.000023291007391</v>
       </c>
       <c r="O24" t="n">
-        <v>0.005932747262353274</v>
+        <v>0.00297689013595912</v>
       </c>
       <c r="P24" t="n">
-        <v>86.67583478283312</v>
+        <v>89.4342676255151</v>
       </c>
       <c r="Q24" t="n">
-        <v>126.8987370034837</v>
+        <v>129.6571698461657</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999595656729801</v>
+        <v>0.9999919339075543</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989587706585999</v>
+        <v>0.9990776446036159</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9997975912621249</v>
+        <v>0.9997748228208264</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999351433261617</v>
+        <v>0.9999833155201276</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999688203281849</v>
+        <v>0.9999791882343723</v>
       </c>
       <c r="G25" t="n">
-        <v>3.774366941129799e-05</v>
+        <v>7.529343237582364e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009719418855111137</v>
+        <v>0.0008609782758018352</v>
       </c>
       <c r="I25" t="n">
-        <v>1.552569700392703e-05</v>
+        <v>1.409914518365299e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>1.237384851623009e-05</v>
+        <v>2.348316406765838e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>1.394977276007856e-05</v>
+        <v>1.879115462565569e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0006196451288962507</v>
+        <v>0.0002225903441987405</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00614358766611969</v>
+        <v>0.002743964875427957</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000107824872053</v>
+        <v>1.000021509579855</v>
       </c>
       <c r="O25" t="n">
-        <v>0.006405132912046094</v>
+        <v>0.002860781140965273</v>
       </c>
       <c r="P25" t="n">
-        <v>86.36938558809207</v>
+        <v>89.59340547880177</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.5922878087427</v>
+        <v>129.8163076994524</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999526442774134</v>
+        <v>0.9999916490855287</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989515990947517</v>
+        <v>0.9990463145967243</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9998384595466855</v>
+        <v>0.9997829654209507</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999436945175725</v>
+        <v>0.999982891046268</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999741469419973</v>
+        <v>0.9999791397225566</v>
       </c>
       <c r="G26" t="n">
-        <v>4.420448835861789e-05</v>
+        <v>7.795212096173262e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009786362255682409</v>
+        <v>0.0008902234620067884</v>
       </c>
       <c r="I26" t="n">
-        <v>1.239090840823963e-05</v>
+        <v>1.358930798902283e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>1.07423873128103e-05</v>
+        <v>2.408060488480535e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>1.156664786052496e-05</v>
+        <v>1.883495643691409e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0006550392082758296</v>
+        <v>0.0002150984269943292</v>
       </c>
       <c r="M26" t="n">
-        <v>0.006648645603325379</v>
+        <v>0.002791990704886616</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000126281926898</v>
+        <v>1.000022269105257</v>
       </c>
       <c r="O26" t="n">
-        <v>0.006931692211252689</v>
+        <v>0.002910851529411159</v>
       </c>
       <c r="P26" t="n">
-        <v>86.05336845492212</v>
+        <v>89.52400169313157</v>
       </c>
       <c r="Q26" t="n">
-        <v>126.2762706755727</v>
+        <v>129.7469039137822</v>
       </c>
     </row>
   </sheetData>
